--- a/WebApplication1/Content/import.xlsx
+++ b/WebApplication1/Content/import.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>номер</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>место рождения</t>
+  </si>
+  <si>
+    <t>НОМЕР ПАСПОРТА</t>
+  </si>
+  <si>
+    <t>Срок действия паспорта</t>
   </si>
 </sst>
 </file>
@@ -463,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -478,10 +484,11 @@
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="2"/>
     <col min="10" max="10" width="22" style="2" customWidth="1"/>
-    <col min="11" max="11" width="29.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,8 +522,14 @@
       <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>100</v>
       </c>
@@ -545,53 +558,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2">
+        <v>12</v>
+      </c>
+      <c r="M3" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:13">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:13">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:13">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:13">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:13">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:13">
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2">

--- a/WebApplication1/Content/import.xlsx
+++ b/WebApplication1/Content/import.xlsx
@@ -49,9 +49,6 @@
     <t>Застрахованный</t>
   </si>
   <si>
-    <t>Имя1</t>
-  </si>
-  <si>
     <t>Пол</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>Срок действия паспорта</t>
+  </si>
+  <si>
+    <t>Имя2</t>
   </si>
 </sst>
 </file>
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -483,7 +483,7 @@
     <col min="7" max="7" width="17.1640625" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="2"/>
-    <col min="10" max="10" width="22" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="2" customWidth="1"/>
     <col min="12" max="12" width="17.33203125" customWidth="1"/>
   </cols>
@@ -514,19 +514,19 @@
         <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -552,52 +552,18 @@
         <v>42005</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
+      <c r="J2" s="1">
+        <v>26348</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3" s="2">
-        <v>9</v>
-      </c>
-      <c r="J3" s="2">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2">
-        <v>11</v>
-      </c>
-      <c r="L3" s="2">
-        <v>12</v>
-      </c>
-      <c r="M3" s="2">
-        <v>13</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="1"/>
@@ -621,7 +587,6 @@
     </row>
     <row r="9" spans="1:13">
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:13">
       <c r="B10" s="1"/>
@@ -643,9 +608,6 @@
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/WebApplication1/Content/import.xlsx
+++ b/WebApplication1/Content/import.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gTravel\WebApplication1\Content\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14445" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>номер</t>
   </si>
@@ -64,7 +69,31 @@
     <t>Срок действия паспорта</t>
   </si>
   <si>
-    <t>Имя2</t>
+    <t>Ung Vang</t>
+  </si>
+  <si>
+    <t>Chu-chu</t>
+  </si>
+  <si>
+    <t>123-321</t>
+  </si>
+  <si>
+    <t>La Li</t>
+  </si>
+  <si>
+    <t>Pekin</t>
+  </si>
+  <si>
+    <t>654-586</t>
+  </si>
+  <si>
+    <t>Ya lu</t>
+  </si>
+  <si>
+    <t>tut</t>
+  </si>
+  <si>
+    <t>pepe</t>
   </si>
 </sst>
 </file>
@@ -138,12 +167,20 @@
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -472,23 +509,24 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="2"/>
     <col min="10" max="10" width="22" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.375" customWidth="1"/>
+    <col min="13" max="13" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,12 +567,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="B2" s="1">
-        <v>370631</v>
+        <v>41950</v>
       </c>
       <c r="C2" s="1">
         <v>41994</v>
@@ -549,7 +587,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="1">
-        <v>42005</v>
+        <v>41994</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
@@ -560,53 +598,138 @@
       <c r="J2" s="1">
         <v>26348</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1">
+        <v>44158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>203</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>31154</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1">
+        <v>42105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>203</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>32714</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>5412636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41949</v>
+      </c>
+      <c r="C5" s="1">
+        <v>41949</v>
+      </c>
+      <c r="D5" s="1">
+        <v>41959</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>41949</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>31154</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1">
+        <v>42105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
     </row>
   </sheetData>
@@ -628,14 +751,14 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -658,7 +781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -669,7 +792,7 @@
         <v>41994</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
@@ -680,7 +803,7 @@
         <v>41994</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
@@ -691,7 +814,7 @@
         <v>41994</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -702,7 +825,7 @@
         <v>41994</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100</v>
       </c>
@@ -713,7 +836,7 @@
         <v>41994</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
@@ -724,7 +847,7 @@
         <v>41994</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>100</v>
       </c>
@@ -735,7 +858,7 @@
         <v>41994</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>100</v>
       </c>
@@ -746,7 +869,7 @@
         <v>41994</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>102</v>
       </c>
@@ -754,7 +877,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>102</v>
       </c>
@@ -762,7 +885,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>102</v>
       </c>
@@ -770,7 +893,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>102</v>
       </c>
@@ -778,7 +901,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>102</v>
       </c>
@@ -786,7 +909,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>102</v>
       </c>
@@ -794,7 +917,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>102</v>
       </c>
@@ -802,7 +925,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>102</v>
       </c>

--- a/WebApplication1/Content/import.xlsx
+++ b/WebApplication1/Content/import.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
   <si>
     <t>номер</t>
   </si>
@@ -509,7 +509,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -569,7 +569,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="B2" s="1">
         <v>41950</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -635,7 +635,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -697,31 +697,262 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6">
+        <v>126</v>
+      </c>
+      <c r="B6" s="1">
+        <v>41950</v>
+      </c>
+      <c r="C6" s="1">
+        <v>41994</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42005</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>41994</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>26348</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="1">
+        <v>44158</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>126</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>31154</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="1">
+        <v>42105</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>126</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>32714</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8">
+        <v>5412636</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
+      <c r="A9">
+        <v>200</v>
+      </c>
+      <c r="B9" s="1">
+        <v>41949</v>
+      </c>
+      <c r="C9" s="1">
+        <v>41949</v>
+      </c>
+      <c r="D9" s="1">
+        <v>41959</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>41949</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>31154</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="1">
+        <v>42105</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
+      <c r="A10">
+        <v>201</v>
+      </c>
+      <c r="B10" s="1">
+        <v>41950</v>
+      </c>
+      <c r="C10" s="1">
+        <v>41994</v>
+      </c>
+      <c r="D10" s="1">
+        <v>42005</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>41994</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>26348</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="1">
+        <v>44158</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>201</v>
+      </c>
       <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>31154</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="1">
+        <v>42105</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>201</v>
+      </c>
       <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>32714</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12">
+        <v>5412636</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
+      <c r="A13">
+        <v>300</v>
+      </c>
+      <c r="B13" s="1">
+        <v>41949</v>
+      </c>
+      <c r="C13" s="1">
+        <v>41949</v>
+      </c>
+      <c r="D13" s="1">
+        <v>41959</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>41949</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>31154</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="1">
+        <v>42105</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
